--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="138">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -367,6 +367,15 @@
     <t>['25']</t>
   </si>
   <si>
+    <t>['42', '52']</t>
+  </si>
+  <si>
+    <t>['7', '90+1']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
     <t>['81']</t>
   </si>
   <si>
@@ -416,6 +425,9 @@
   </si>
   <si>
     <t>['11', '48', '82']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
   </si>
 </sst>
 </file>
@@ -777,7 +789,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK43"/>
+  <dimension ref="A1:BK46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1111,7 +1123,7 @@
         <v>2</v>
       </c>
       <c r="AT2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1299,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT3">
         <v>0</v>
@@ -2167,7 +2179,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2358,7 +2370,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2830,7 +2842,7 @@
         <v>3</v>
       </c>
       <c r="AT11">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -2931,7 +2943,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3122,7 +3134,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q13">
         <v>6</v>
@@ -3313,7 +3325,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3886,7 +3898,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4268,7 +4280,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4358,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="AT19">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4650,7 +4662,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q21">
         <v>12</v>
@@ -4841,7 +4853,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q22">
         <v>10</v>
@@ -5032,7 +5044,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q23">
         <v>10</v>
@@ -5310,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT24">
         <v>1</v>
@@ -5414,7 +5426,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -5605,7 +5617,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6178,7 +6190,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q29">
         <v>10</v>
@@ -6268,7 +6280,7 @@
         <v>3</v>
       </c>
       <c r="AT29">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU29">
         <v>1.4</v>
@@ -6841,7 +6853,7 @@
         <v>2</v>
       </c>
       <c r="AT32">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU32">
         <v>2.85</v>
@@ -7133,7 +7145,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7223,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="AT34">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU34">
         <v>0.83</v>
@@ -7324,7 +7336,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q35">
         <v>8</v>
@@ -8279,7 +8291,7 @@
         <v>84</v>
       </c>
       <c r="P40" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -8470,7 +8482,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -8661,7 +8673,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q42">
         <v>11</v>
@@ -8855,13 +8867,13 @@
         <v>84</v>
       </c>
       <c r="Q43">
+        <v>8</v>
+      </c>
+      <c r="R43">
         <v>4</v>
       </c>
-      <c r="R43">
-        <v>3</v>
-      </c>
       <c r="S43">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="T43">
         <v>0</v>
@@ -8978,22 +8990,595 @@
         <v>0</v>
       </c>
       <c r="BF43">
+        <v>5</v>
+      </c>
+      <c r="BG43">
+        <v>3</v>
+      </c>
+      <c r="BH43">
+        <v>7</v>
+      </c>
+      <c r="BI43">
+        <v>6</v>
+      </c>
+      <c r="BJ43">
+        <v>12</v>
+      </c>
+      <c r="BK43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:63">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>5053016</v>
+      </c>
+      <c r="C44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="2">
+        <v>44996.91666666666</v>
+      </c>
+      <c r="F44">
+        <v>8</v>
+      </c>
+      <c r="G44" t="s">
+        <v>81</v>
+      </c>
+      <c r="H44" t="s">
+        <v>65</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44" t="s">
+        <v>117</v>
+      </c>
+      <c r="P44" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q44">
+        <v>11</v>
+      </c>
+      <c r="R44">
+        <v>5</v>
+      </c>
+      <c r="S44">
+        <v>16</v>
+      </c>
+      <c r="T44">
+        <v>1.76</v>
+      </c>
+      <c r="U44">
+        <v>2.5</v>
+      </c>
+      <c r="V44">
+        <v>7.5</v>
+      </c>
+      <c r="W44">
+        <v>1.3</v>
+      </c>
+      <c r="X44">
+        <v>3.2</v>
+      </c>
+      <c r="Y44">
+        <v>2.62</v>
+      </c>
+      <c r="Z44">
+        <v>1.44</v>
+      </c>
+      <c r="AA44">
+        <v>6.5</v>
+      </c>
+      <c r="AB44">
+        <v>1.08</v>
+      </c>
+      <c r="AC44">
+        <v>1.3</v>
+      </c>
+      <c r="AD44">
+        <v>5</v>
+      </c>
+      <c r="AE44">
+        <v>9</v>
+      </c>
+      <c r="AF44">
+        <v>1.02</v>
+      </c>
+      <c r="AG44">
+        <v>13</v>
+      </c>
+      <c r="AH44">
+        <v>1.22</v>
+      </c>
+      <c r="AI44">
+        <v>3.74</v>
+      </c>
+      <c r="AJ44">
+        <v>1.74</v>
+      </c>
+      <c r="AK44">
+        <v>2.02</v>
+      </c>
+      <c r="AL44">
+        <v>2.1</v>
+      </c>
+      <c r="AM44">
+        <v>1.7</v>
+      </c>
+      <c r="AN44">
+        <v>1.06</v>
+      </c>
+      <c r="AO44">
+        <v>1.13</v>
+      </c>
+      <c r="AP44">
+        <v>3.09</v>
+      </c>
+      <c r="AQ44">
+        <v>3</v>
+      </c>
+      <c r="AR44">
+        <v>1.5</v>
+      </c>
+      <c r="AS44">
+        <v>3</v>
+      </c>
+      <c r="AT44">
+        <v>1</v>
+      </c>
+      <c r="AU44">
+        <v>1.74</v>
+      </c>
+      <c r="AV44">
+        <v>1.07</v>
+      </c>
+      <c r="AW44">
+        <v>2.81</v>
+      </c>
+      <c r="AX44">
+        <v>1.2</v>
+      </c>
+      <c r="AY44">
+        <v>11</v>
+      </c>
+      <c r="AZ44">
+        <v>5.5</v>
+      </c>
+      <c r="BA44">
+        <v>1.15</v>
+      </c>
+      <c r="BB44">
+        <v>1.26</v>
+      </c>
+      <c r="BC44">
+        <v>1.51</v>
+      </c>
+      <c r="BD44">
+        <v>1.88</v>
+      </c>
+      <c r="BE44">
+        <v>2.39</v>
+      </c>
+      <c r="BF44">
+        <v>6</v>
+      </c>
+      <c r="BG44">
         <v>4</v>
       </c>
-      <c r="BG43">
-        <v>2</v>
-      </c>
-      <c r="BH43">
+      <c r="BH44">
+        <v>8</v>
+      </c>
+      <c r="BI44">
+        <v>3</v>
+      </c>
+      <c r="BJ44">
+        <v>14</v>
+      </c>
+      <c r="BK44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:63">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>5053014</v>
+      </c>
+      <c r="C45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="2">
+        <v>44997.54166666666</v>
+      </c>
+      <c r="F45">
+        <v>8</v>
+      </c>
+      <c r="G45" t="s">
+        <v>79</v>
+      </c>
+      <c r="H45" t="s">
+        <v>83</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45" t="s">
+        <v>118</v>
+      </c>
+      <c r="P45" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q45">
+        <v>4</v>
+      </c>
+      <c r="R45">
+        <v>3</v>
+      </c>
+      <c r="S45">
+        <v>7</v>
+      </c>
+      <c r="T45">
+        <v>2.63</v>
+      </c>
+      <c r="U45">
+        <v>2.12</v>
+      </c>
+      <c r="V45">
+        <v>4.1</v>
+      </c>
+      <c r="W45">
+        <v>1.33</v>
+      </c>
+      <c r="X45">
+        <v>2.95</v>
+      </c>
+      <c r="Y45">
+        <v>2.8</v>
+      </c>
+      <c r="Z45">
+        <v>1.4</v>
+      </c>
+      <c r="AA45">
+        <v>7.5</v>
+      </c>
+      <c r="AB45">
+        <v>1.07</v>
+      </c>
+      <c r="AC45">
+        <v>1.95</v>
+      </c>
+      <c r="AD45">
+        <v>3.2</v>
+      </c>
+      <c r="AE45">
+        <v>3.5</v>
+      </c>
+      <c r="AF45">
+        <v>1.04</v>
+      </c>
+      <c r="AG45">
+        <v>10</v>
+      </c>
+      <c r="AH45">
+        <v>1.25</v>
+      </c>
+      <c r="AI45">
+        <v>3.65</v>
+      </c>
+      <c r="AJ45">
+        <v>1.8</v>
+      </c>
+      <c r="AK45">
+        <v>1.8</v>
+      </c>
+      <c r="AL45">
+        <v>1.68</v>
+      </c>
+      <c r="AM45">
+        <v>2.08</v>
+      </c>
+      <c r="AN45">
+        <v>1.24</v>
+      </c>
+      <c r="AO45">
+        <v>1.29</v>
+      </c>
+      <c r="AP45">
+        <v>1.72</v>
+      </c>
+      <c r="AQ45">
+        <v>3</v>
+      </c>
+      <c r="AR45">
+        <v>1.5</v>
+      </c>
+      <c r="AS45">
+        <v>3</v>
+      </c>
+      <c r="AT45">
+        <v>1</v>
+      </c>
+      <c r="AU45">
+        <v>1.14</v>
+      </c>
+      <c r="AV45">
+        <v>1.75</v>
+      </c>
+      <c r="AW45">
+        <v>2.89</v>
+      </c>
+      <c r="AX45">
+        <v>1.67</v>
+      </c>
+      <c r="AY45">
+        <v>8.5</v>
+      </c>
+      <c r="AZ45">
+        <v>2.5</v>
+      </c>
+      <c r="BA45">
+        <v>0</v>
+      </c>
+      <c r="BB45">
+        <v>1.29</v>
+      </c>
+      <c r="BC45">
+        <v>1.54</v>
+      </c>
+      <c r="BD45">
+        <v>1.98</v>
+      </c>
+      <c r="BE45">
+        <v>2.49</v>
+      </c>
+      <c r="BF45">
+        <v>10</v>
+      </c>
+      <c r="BG45">
+        <v>3</v>
+      </c>
+      <c r="BH45">
         <v>6</v>
       </c>
-      <c r="BI43">
+      <c r="BI45">
         <v>5</v>
       </c>
-      <c r="BJ43">
+      <c r="BJ45">
+        <v>16</v>
+      </c>
+      <c r="BK45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:63">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>5053012</v>
+      </c>
+      <c r="C46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="2">
+        <v>44997.625</v>
+      </c>
+      <c r="F46">
+        <v>8</v>
+      </c>
+      <c r="G46" t="s">
+        <v>66</v>
+      </c>
+      <c r="H46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46" t="s">
+        <v>119</v>
+      </c>
+      <c r="P46" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q46">
+        <v>4</v>
+      </c>
+      <c r="R46">
+        <v>2</v>
+      </c>
+      <c r="S46">
+        <v>6</v>
+      </c>
+      <c r="T46">
+        <v>2.6</v>
+      </c>
+      <c r="U46">
+        <v>2.2</v>
+      </c>
+      <c r="V46">
+        <v>4.5</v>
+      </c>
+      <c r="W46">
+        <v>1.4</v>
+      </c>
+      <c r="X46">
+        <v>2.75</v>
+      </c>
+      <c r="Y46">
+        <v>2.75</v>
+      </c>
+      <c r="Z46">
+        <v>1.4</v>
+      </c>
+      <c r="AA46">
+        <v>7</v>
+      </c>
+      <c r="AB46">
+        <v>1.08</v>
+      </c>
+      <c r="AC46">
+        <v>1.74</v>
+      </c>
+      <c r="AD46">
+        <v>3.35</v>
+      </c>
+      <c r="AE46">
+        <v>4.2</v>
+      </c>
+      <c r="AF46">
+        <v>1.05</v>
+      </c>
+      <c r="AG46">
         <v>10</v>
       </c>
-      <c r="BK43">
-        <v>7</v>
+      <c r="AH46">
+        <v>1.33</v>
+      </c>
+      <c r="AI46">
+        <v>3.25</v>
+      </c>
+      <c r="AJ46">
+        <v>1.8</v>
+      </c>
+      <c r="AK46">
+        <v>1.81</v>
+      </c>
+      <c r="AL46">
+        <v>1.85</v>
+      </c>
+      <c r="AM46">
+        <v>1.91</v>
+      </c>
+      <c r="AN46">
+        <v>1.25</v>
+      </c>
+      <c r="AO46">
+        <v>1.25</v>
+      </c>
+      <c r="AP46">
+        <v>1.87</v>
+      </c>
+      <c r="AQ46">
+        <v>2</v>
+      </c>
+      <c r="AR46">
+        <v>1.5</v>
+      </c>
+      <c r="AS46">
+        <v>1.67</v>
+      </c>
+      <c r="AT46">
+        <v>1.33</v>
+      </c>
+      <c r="AU46">
+        <v>1.6</v>
+      </c>
+      <c r="AV46">
+        <v>0.78</v>
+      </c>
+      <c r="AW46">
+        <v>2.38</v>
+      </c>
+      <c r="AX46">
+        <v>1.5</v>
+      </c>
+      <c r="AY46">
+        <v>8.5</v>
+      </c>
+      <c r="AZ46">
+        <v>3</v>
+      </c>
+      <c r="BA46">
+        <v>1.18</v>
+      </c>
+      <c r="BB46">
+        <v>1.36</v>
+      </c>
+      <c r="BC46">
+        <v>1.68</v>
+      </c>
+      <c r="BD46">
+        <v>2.09</v>
+      </c>
+      <c r="BE46">
+        <v>2.75</v>
+      </c>
+      <c r="BF46">
+        <v>2</v>
+      </c>
+      <c r="BG46">
+        <v>3</v>
+      </c>
+      <c r="BH46">
+        <v>6</v>
+      </c>
+      <c r="BI46">
+        <v>2</v>
+      </c>
+      <c r="BJ46">
+        <v>8</v>
+      </c>
+      <c r="BK46">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="142">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -376,6 +376,15 @@
     <t>['90+5']</t>
   </si>
   <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['49', '71', '86', '90+2']</t>
+  </si>
+  <si>
+    <t>['16']</t>
+  </si>
+  <si>
     <t>['81']</t>
   </si>
   <si>
@@ -397,9 +406,6 @@
     <t>['58', '66']</t>
   </si>
   <si>
-    <t>['26']</t>
-  </si>
-  <si>
     <t>['4', '9', '85']</t>
   </si>
   <si>
@@ -428,6 +434,12 @@
   </si>
   <si>
     <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['33', '60', '76', '83']</t>
+  </si>
+  <si>
+    <t>['21', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -789,7 +801,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK46"/>
+  <dimension ref="A1:BK49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1505,7 +1517,7 @@
         <v>2</v>
       </c>
       <c r="AT4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1884,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT6">
         <v>0.33</v>
@@ -2179,7 +2191,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2370,7 +2382,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2943,7 +2955,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3030,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT12">
         <v>3</v>
@@ -3134,7 +3146,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q13">
         <v>6</v>
@@ -3325,7 +3337,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3797,7 +3809,7 @@
         <v>3</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -3898,7 +3910,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4280,7 +4292,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4662,7 +4674,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="Q21">
         <v>12</v>
@@ -4853,7 +4865,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q22">
         <v>10</v>
@@ -4943,7 +4955,7 @@
         <v>1.5</v>
       </c>
       <c r="AT22">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5044,7 +5056,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q23">
         <v>10</v>
@@ -5426,7 +5438,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -5617,7 +5629,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -6190,7 +6202,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q29">
         <v>10</v>
@@ -6468,7 +6480,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT30">
         <v>1.5</v>
@@ -7044,7 +7056,7 @@
         <v>2</v>
       </c>
       <c r="AT33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU33">
         <v>0.97</v>
@@ -7145,7 +7157,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7232,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT34">
         <v>1</v>
@@ -7336,7 +7348,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q35">
         <v>8</v>
@@ -8291,7 +8303,7 @@
         <v>84</v>
       </c>
       <c r="P40" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -8482,7 +8494,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -8673,7 +8685,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q42">
         <v>11</v>
@@ -9437,7 +9449,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9579,6 +9591,579 @@
       </c>
       <c r="BK46">
         <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:63">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>5053010</v>
+      </c>
+      <c r="C47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="2">
+        <v>44997.72916666666</v>
+      </c>
+      <c r="F47">
+        <v>8</v>
+      </c>
+      <c r="G47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" t="s">
+        <v>74</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47" t="s">
+        <v>120</v>
+      </c>
+      <c r="P47" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q47">
+        <v>2</v>
+      </c>
+      <c r="R47">
+        <v>5</v>
+      </c>
+      <c r="S47">
+        <v>7</v>
+      </c>
+      <c r="T47">
+        <v>3.5</v>
+      </c>
+      <c r="U47">
+        <v>2.2</v>
+      </c>
+      <c r="V47">
+        <v>3</v>
+      </c>
+      <c r="W47">
+        <v>1.4</v>
+      </c>
+      <c r="X47">
+        <v>2.85</v>
+      </c>
+      <c r="Y47">
+        <v>2.75</v>
+      </c>
+      <c r="Z47">
+        <v>1.4</v>
+      </c>
+      <c r="AA47">
+        <v>8</v>
+      </c>
+      <c r="AB47">
+        <v>1.08</v>
+      </c>
+      <c r="AC47">
+        <v>2.9</v>
+      </c>
+      <c r="AD47">
+        <v>3.4</v>
+      </c>
+      <c r="AE47">
+        <v>2.3</v>
+      </c>
+      <c r="AF47">
+        <v>1.05</v>
+      </c>
+      <c r="AG47">
+        <v>11</v>
+      </c>
+      <c r="AH47">
+        <v>1.29</v>
+      </c>
+      <c r="AI47">
+        <v>3.5</v>
+      </c>
+      <c r="AJ47">
+        <v>1.87</v>
+      </c>
+      <c r="AK47">
+        <v>1.86</v>
+      </c>
+      <c r="AL47">
+        <v>1.73</v>
+      </c>
+      <c r="AM47">
+        <v>2.06</v>
+      </c>
+      <c r="AN47">
+        <v>1.55</v>
+      </c>
+      <c r="AO47">
+        <v>1.27</v>
+      </c>
+      <c r="AP47">
+        <v>1.4</v>
+      </c>
+      <c r="AQ47">
+        <v>0</v>
+      </c>
+      <c r="AR47">
+        <v>1.5</v>
+      </c>
+      <c r="AS47">
+        <v>1</v>
+      </c>
+      <c r="AT47">
+        <v>1</v>
+      </c>
+      <c r="AU47">
+        <v>1.14</v>
+      </c>
+      <c r="AV47">
+        <v>1.51</v>
+      </c>
+      <c r="AW47">
+        <v>2.65</v>
+      </c>
+      <c r="AX47">
+        <v>0</v>
+      </c>
+      <c r="AY47">
+        <v>0</v>
+      </c>
+      <c r="AZ47">
+        <v>0</v>
+      </c>
+      <c r="BA47">
+        <v>0</v>
+      </c>
+      <c r="BB47">
+        <v>0</v>
+      </c>
+      <c r="BC47">
+        <v>0</v>
+      </c>
+      <c r="BD47">
+        <v>0</v>
+      </c>
+      <c r="BE47">
+        <v>0</v>
+      </c>
+      <c r="BF47">
+        <v>5</v>
+      </c>
+      <c r="BG47">
+        <v>8</v>
+      </c>
+      <c r="BH47">
+        <v>5</v>
+      </c>
+      <c r="BI47">
+        <v>4</v>
+      </c>
+      <c r="BJ47">
+        <v>10</v>
+      </c>
+      <c r="BK47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:63">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>5053011</v>
+      </c>
+      <c r="C48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="2">
+        <v>44997.83333333334</v>
+      </c>
+      <c r="F48">
+        <v>8</v>
+      </c>
+      <c r="G48" t="s">
+        <v>69</v>
+      </c>
+      <c r="H48" t="s">
+        <v>70</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>4</v>
+      </c>
+      <c r="M48">
+        <v>4</v>
+      </c>
+      <c r="N48">
+        <v>8</v>
+      </c>
+      <c r="O48" t="s">
+        <v>121</v>
+      </c>
+      <c r="P48" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q48">
+        <v>7</v>
+      </c>
+      <c r="R48">
+        <v>5</v>
+      </c>
+      <c r="S48">
+        <v>12</v>
+      </c>
+      <c r="T48">
+        <v>3.3</v>
+      </c>
+      <c r="U48">
+        <v>2.2</v>
+      </c>
+      <c r="V48">
+        <v>3</v>
+      </c>
+      <c r="W48">
+        <v>1.38</v>
+      </c>
+      <c r="X48">
+        <v>3.05</v>
+      </c>
+      <c r="Y48">
+        <v>2.85</v>
+      </c>
+      <c r="Z48">
+        <v>1.4</v>
+      </c>
+      <c r="AA48">
+        <v>7.5</v>
+      </c>
+      <c r="AB48">
+        <v>1.08</v>
+      </c>
+      <c r="AC48">
+        <v>2.7</v>
+      </c>
+      <c r="AD48">
+        <v>3.5</v>
+      </c>
+      <c r="AE48">
+        <v>2.35</v>
+      </c>
+      <c r="AF48">
+        <v>1.04</v>
+      </c>
+      <c r="AG48">
+        <v>12</v>
+      </c>
+      <c r="AH48">
+        <v>1.3</v>
+      </c>
+      <c r="AI48">
+        <v>3.5</v>
+      </c>
+      <c r="AJ48">
+        <v>1.86</v>
+      </c>
+      <c r="AK48">
+        <v>1.86</v>
+      </c>
+      <c r="AL48">
+        <v>1.71</v>
+      </c>
+      <c r="AM48">
+        <v>2.04</v>
+      </c>
+      <c r="AN48">
+        <v>1.52</v>
+      </c>
+      <c r="AO48">
+        <v>1.26</v>
+      </c>
+      <c r="AP48">
+        <v>1.41</v>
+      </c>
+      <c r="AQ48">
+        <v>3</v>
+      </c>
+      <c r="AR48">
+        <v>1</v>
+      </c>
+      <c r="AS48">
+        <v>2.33</v>
+      </c>
+      <c r="AT48">
+        <v>1</v>
+      </c>
+      <c r="AU48">
+        <v>1.61</v>
+      </c>
+      <c r="AV48">
+        <v>2.24</v>
+      </c>
+      <c r="AW48">
+        <v>3.85</v>
+      </c>
+      <c r="AX48">
+        <v>1.8</v>
+      </c>
+      <c r="AY48">
+        <v>8.5</v>
+      </c>
+      <c r="AZ48">
+        <v>2.3</v>
+      </c>
+      <c r="BA48">
+        <v>0</v>
+      </c>
+      <c r="BB48">
+        <v>1.29</v>
+      </c>
+      <c r="BC48">
+        <v>1.54</v>
+      </c>
+      <c r="BD48">
+        <v>1.98</v>
+      </c>
+      <c r="BE48">
+        <v>2.49</v>
+      </c>
+      <c r="BF48">
+        <v>8</v>
+      </c>
+      <c r="BG48">
+        <v>8</v>
+      </c>
+      <c r="BH48">
+        <v>13</v>
+      </c>
+      <c r="BI48">
+        <v>2</v>
+      </c>
+      <c r="BJ48">
+        <v>21</v>
+      </c>
+      <c r="BK48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:63">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>5053017</v>
+      </c>
+      <c r="C49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="2">
+        <v>44998.83333333334</v>
+      </c>
+      <c r="F49">
+        <v>8</v>
+      </c>
+      <c r="G49" t="s">
+        <v>76</v>
+      </c>
+      <c r="H49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="N49">
+        <v>3</v>
+      </c>
+      <c r="O49" t="s">
+        <v>122</v>
+      </c>
+      <c r="P49" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q49">
+        <v>5</v>
+      </c>
+      <c r="R49">
+        <v>5</v>
+      </c>
+      <c r="S49">
+        <v>10</v>
+      </c>
+      <c r="T49">
+        <v>3.25</v>
+      </c>
+      <c r="U49">
+        <v>2.1</v>
+      </c>
+      <c r="V49">
+        <v>3.25</v>
+      </c>
+      <c r="W49">
+        <v>1.4</v>
+      </c>
+      <c r="X49">
+        <v>2.83</v>
+      </c>
+      <c r="Y49">
+        <v>2.88</v>
+      </c>
+      <c r="Z49">
+        <v>1.39</v>
+      </c>
+      <c r="AA49">
+        <v>7.4</v>
+      </c>
+      <c r="AB49">
+        <v>1.07</v>
+      </c>
+      <c r="AC49">
+        <v>2.55</v>
+      </c>
+      <c r="AD49">
+        <v>3.25</v>
+      </c>
+      <c r="AE49">
+        <v>2.75</v>
+      </c>
+      <c r="AF49">
+        <v>1.05</v>
+      </c>
+      <c r="AG49">
+        <v>11</v>
+      </c>
+      <c r="AH49">
+        <v>1.29</v>
+      </c>
+      <c r="AI49">
+        <v>3.28</v>
+      </c>
+      <c r="AJ49">
+        <v>2</v>
+      </c>
+      <c r="AK49">
+        <v>1.78</v>
+      </c>
+      <c r="AL49">
+        <v>1.76</v>
+      </c>
+      <c r="AM49">
+        <v>2.01</v>
+      </c>
+      <c r="AN49">
+        <v>1.39</v>
+      </c>
+      <c r="AO49">
+        <v>1.29</v>
+      </c>
+      <c r="AP49">
+        <v>1.51</v>
+      </c>
+      <c r="AQ49">
+        <v>0</v>
+      </c>
+      <c r="AR49">
+        <v>0</v>
+      </c>
+      <c r="AS49">
+        <v>0</v>
+      </c>
+      <c r="AT49">
+        <v>1</v>
+      </c>
+      <c r="AU49">
+        <v>1.41</v>
+      </c>
+      <c r="AV49">
+        <v>1.39</v>
+      </c>
+      <c r="AW49">
+        <v>2.8</v>
+      </c>
+      <c r="AX49">
+        <v>1.91</v>
+      </c>
+      <c r="AY49">
+        <v>8</v>
+      </c>
+      <c r="AZ49">
+        <v>2.1</v>
+      </c>
+      <c r="BA49">
+        <v>1.17</v>
+      </c>
+      <c r="BB49">
+        <v>1.3</v>
+      </c>
+      <c r="BC49">
+        <v>1.57</v>
+      </c>
+      <c r="BD49">
+        <v>1.97</v>
+      </c>
+      <c r="BE49">
+        <v>2.57</v>
+      </c>
+      <c r="BF49">
+        <v>4</v>
+      </c>
+      <c r="BG49">
+        <v>6</v>
+      </c>
+      <c r="BH49">
+        <v>8</v>
+      </c>
+      <c r="BI49">
+        <v>3</v>
+      </c>
+      <c r="BJ49">
+        <v>12</v>
+      </c>
+      <c r="BK49">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK49"/>
+  <dimension ref="A1:BK52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.67</v>
       </c>
       <c r="AT3" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT8" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>2.33</v>
       </c>
       <c r="AT20" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT23" t="n">
         <v>2</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT28" t="n">
         <v>0</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT35" t="n">
         <v>0.33</v>
@@ -8414,7 +8414,7 @@
         <v>2</v>
       </c>
       <c r="AT39" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU39" t="n">
         <v>1.92</v>
@@ -8614,7 +8614,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT40" t="n">
         <v>2</v>
@@ -8820,7 +8820,7 @@
         <v>1</v>
       </c>
       <c r="AT41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU41" t="n">
         <v>1.47</v>
@@ -10496,6 +10496,615 @@
       </c>
       <c r="BK49" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>5053025</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45002.72916666666</v>
+      </c>
+      <c r="F50" t="n">
+        <v>9</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Deportivo Garcilaso</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="n">
+        <v>3</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>['50', '90+2']</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>9</v>
+      </c>
+      <c r="S50" t="n">
+        <v>12</v>
+      </c>
+      <c r="T50" t="n">
+        <v>3</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V50" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X50" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>5053021</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45003.625</v>
+      </c>
+      <c r="F51" t="n">
+        <v>9</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Alianza Atlético</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Academia Cantolao</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>2</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="n">
+        <v>3</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>['58', '83']</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>8</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>13</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V51" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X51" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>5053019</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45003.72916666666</v>
+      </c>
+      <c r="F52" t="n">
+        <v>9</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>UTC Cajamarca</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Melgar</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>10</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>14</v>
+      </c>
+      <c r="T52" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="U52" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X52" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -11906,22 +11906,22 @@
         <v>2.16</v>
       </c>
       <c r="BF58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH58">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BI58">
         <v>5</v>
       </c>
       <c r="BJ58">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BK58">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="159">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -409,6 +409,15 @@
     <t>['16', '57', '62']</t>
   </si>
   <si>
+    <t>['13', '26', '56']</t>
+  </si>
+  <si>
+    <t>['67', '90+1']</t>
+  </si>
+  <si>
+    <t>['15', '80']</t>
+  </si>
+  <si>
     <t>['81']</t>
   </si>
   <si>
@@ -479,6 +488,9 @@
   </si>
   <si>
     <t>['4']</t>
+  </si>
+  <si>
+    <t>['48', '61']</t>
   </si>
 </sst>
 </file>
@@ -840,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK58"/>
+  <dimension ref="A1:BK62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1174,7 +1186,7 @@
         <v>2.25</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1553,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT4">
         <v>0</v>
@@ -1747,7 +1759,7 @@
         <v>1.75</v>
       </c>
       <c r="AT5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2126,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT7">
         <v>1.5</v>
@@ -2230,7 +2242,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2421,7 +2433,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2508,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT9">
         <v>0.5</v>
@@ -2699,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT10">
         <v>1.5</v>
@@ -2994,7 +3006,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3185,7 +3197,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q13">
         <v>6</v>
@@ -3376,7 +3388,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3949,7 +3961,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4331,7 +4343,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4609,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT20">
         <v>0.25</v>
@@ -4800,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT21">
         <v>0</v>
@@ -4904,7 +4916,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q22">
         <v>10</v>
@@ -4994,7 +5006,7 @@
         <v>2</v>
       </c>
       <c r="AT22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5095,7 +5107,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q23">
         <v>10</v>
@@ -5477,7 +5489,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -5564,7 +5576,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT25">
         <v>1.5</v>
@@ -5668,7 +5680,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -5946,7 +5958,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT27">
         <v>0.25</v>
@@ -6241,7 +6253,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q29">
         <v>10</v>
@@ -6331,7 +6343,7 @@
         <v>3</v>
       </c>
       <c r="AT29">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU29">
         <v>1.4</v>
@@ -7196,7 +7208,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7387,7 +7399,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q35">
         <v>8</v>
@@ -7856,7 +7868,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT37">
         <v>0.67</v>
@@ -8047,7 +8059,7 @@
         <v>3</v>
       </c>
       <c r="AS38">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT38">
         <v>1.5</v>
@@ -8238,7 +8250,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT39">
         <v>0.25</v>
@@ -8342,7 +8354,7 @@
         <v>84</v>
       </c>
       <c r="P40" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -8533,7 +8545,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -8620,7 +8632,7 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT41">
         <v>2</v>
@@ -8724,7 +8736,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q42">
         <v>11</v>
@@ -9387,7 +9399,7 @@
         <v>3</v>
       </c>
       <c r="AT45">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU45">
         <v>1.14</v>
@@ -9488,7 +9500,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9769,7 +9781,7 @@
         <v>1</v>
       </c>
       <c r="AT47">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU47">
         <v>1.14</v>
@@ -9870,7 +9882,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10061,7 +10073,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10252,7 +10264,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -10443,7 +10455,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -10825,7 +10837,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11016,7 +11028,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11103,7 +11115,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT54">
         <v>0.67</v>
@@ -11294,7 +11306,7 @@
         <v>0.33</v>
       </c>
       <c r="AS55">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT55">
         <v>0.25</v>
@@ -11398,7 +11410,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11485,7 +11497,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT56">
         <v>1</v>
@@ -11589,7 +11601,7 @@
         <v>129</v>
       </c>
       <c r="P57" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -11922,6 +11934,770 @@
       </c>
       <c r="BK58">
         <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:63">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>5052954</v>
+      </c>
+      <c r="C59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45009.9375</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>67</v>
+      </c>
+      <c r="H59" t="s">
+        <v>74</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>3</v>
+      </c>
+      <c r="O59" t="s">
+        <v>131</v>
+      </c>
+      <c r="P59" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q59">
+        <v>2</v>
+      </c>
+      <c r="R59">
+        <v>1</v>
+      </c>
+      <c r="S59">
+        <v>3</v>
+      </c>
+      <c r="T59">
+        <v>2.12</v>
+      </c>
+      <c r="U59">
+        <v>2.3</v>
+      </c>
+      <c r="V59">
+        <v>5.1</v>
+      </c>
+      <c r="W59">
+        <v>1.33</v>
+      </c>
+      <c r="X59">
+        <v>3</v>
+      </c>
+      <c r="Y59">
+        <v>2.88</v>
+      </c>
+      <c r="Z59">
+        <v>1.36</v>
+      </c>
+      <c r="AA59">
+        <v>7</v>
+      </c>
+      <c r="AB59">
+        <v>1.07</v>
+      </c>
+      <c r="AC59">
+        <v>1.4</v>
+      </c>
+      <c r="AD59">
+        <v>4.2</v>
+      </c>
+      <c r="AE59">
+        <v>7</v>
+      </c>
+      <c r="AF59">
+        <v>1.03</v>
+      </c>
+      <c r="AG59">
+        <v>10</v>
+      </c>
+      <c r="AH59">
+        <v>1.25</v>
+      </c>
+      <c r="AI59">
+        <v>3.5</v>
+      </c>
+      <c r="AJ59">
+        <v>1.87</v>
+      </c>
+      <c r="AK59">
+        <v>1.9</v>
+      </c>
+      <c r="AL59">
+        <v>1.85</v>
+      </c>
+      <c r="AM59">
+        <v>1.91</v>
+      </c>
+      <c r="AN59">
+        <v>1.14</v>
+      </c>
+      <c r="AO59">
+        <v>1.22</v>
+      </c>
+      <c r="AP59">
+        <v>2.19</v>
+      </c>
+      <c r="AQ59">
+        <v>2.25</v>
+      </c>
+      <c r="AR59">
+        <v>1</v>
+      </c>
+      <c r="AS59">
+        <v>2.4</v>
+      </c>
+      <c r="AT59">
+        <v>0.75</v>
+      </c>
+      <c r="AU59">
+        <v>1.7</v>
+      </c>
+      <c r="AV59">
+        <v>1.6</v>
+      </c>
+      <c r="AW59">
+        <v>3.3</v>
+      </c>
+      <c r="AX59">
+        <v>0</v>
+      </c>
+      <c r="AY59">
+        <v>0</v>
+      </c>
+      <c r="AZ59">
+        <v>0</v>
+      </c>
+      <c r="BA59">
+        <v>0</v>
+      </c>
+      <c r="BB59">
+        <v>0</v>
+      </c>
+      <c r="BC59">
+        <v>0</v>
+      </c>
+      <c r="BD59">
+        <v>0</v>
+      </c>
+      <c r="BE59">
+        <v>0</v>
+      </c>
+      <c r="BF59">
+        <v>7</v>
+      </c>
+      <c r="BG59">
+        <v>3</v>
+      </c>
+      <c r="BH59">
+        <v>1</v>
+      </c>
+      <c r="BI59">
+        <v>1</v>
+      </c>
+      <c r="BJ59">
+        <v>8</v>
+      </c>
+      <c r="BK59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:63">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>5052946</v>
+      </c>
+      <c r="C60" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45010.75</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>70</v>
+      </c>
+      <c r="H60" t="s">
+        <v>75</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60" t="s">
+        <v>132</v>
+      </c>
+      <c r="P60" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q60">
+        <v>8</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+      <c r="S60">
+        <v>9</v>
+      </c>
+      <c r="T60">
+        <v>1.55</v>
+      </c>
+      <c r="U60">
+        <v>2.95</v>
+      </c>
+      <c r="V60">
+        <v>8.5</v>
+      </c>
+      <c r="W60">
+        <v>1.25</v>
+      </c>
+      <c r="X60">
+        <v>3.8</v>
+      </c>
+      <c r="Y60">
+        <v>2.43</v>
+      </c>
+      <c r="Z60">
+        <v>1.54</v>
+      </c>
+      <c r="AA60">
+        <v>5.8</v>
+      </c>
+      <c r="AB60">
+        <v>1.12</v>
+      </c>
+      <c r="AC60">
+        <v>1.14</v>
+      </c>
+      <c r="AD60">
+        <v>6</v>
+      </c>
+      <c r="AE60">
+        <v>17</v>
+      </c>
+      <c r="AF60">
+        <v>1.02</v>
+      </c>
+      <c r="AG60">
+        <v>18</v>
+      </c>
+      <c r="AH60">
+        <v>1.19</v>
+      </c>
+      <c r="AI60">
+        <v>4.8</v>
+      </c>
+      <c r="AJ60">
+        <v>1.51</v>
+      </c>
+      <c r="AK60">
+        <v>2.24</v>
+      </c>
+      <c r="AL60">
+        <v>2.6</v>
+      </c>
+      <c r="AM60">
+        <v>1.48</v>
+      </c>
+      <c r="AN60">
+        <v>1.04</v>
+      </c>
+      <c r="AO60">
+        <v>1.11</v>
+      </c>
+      <c r="AP60">
+        <v>4.5</v>
+      </c>
+      <c r="AQ60">
+        <v>2.5</v>
+      </c>
+      <c r="AR60">
+        <v>0</v>
+      </c>
+      <c r="AS60">
+        <v>2.6</v>
+      </c>
+      <c r="AT60">
+        <v>0</v>
+      </c>
+      <c r="AU60">
+        <v>1.21</v>
+      </c>
+      <c r="AV60">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AW60">
+        <v>2.02</v>
+      </c>
+      <c r="AX60">
+        <v>1.09</v>
+      </c>
+      <c r="AY60">
+        <v>13</v>
+      </c>
+      <c r="AZ60">
+        <v>8</v>
+      </c>
+      <c r="BA60">
+        <v>0</v>
+      </c>
+      <c r="BB60">
+        <v>1.3</v>
+      </c>
+      <c r="BC60">
+        <v>1.54</v>
+      </c>
+      <c r="BD60">
+        <v>1.95</v>
+      </c>
+      <c r="BE60">
+        <v>2.41</v>
+      </c>
+      <c r="BF60">
+        <v>9</v>
+      </c>
+      <c r="BG60">
+        <v>0</v>
+      </c>
+      <c r="BH60">
+        <v>3</v>
+      </c>
+      <c r="BI60">
+        <v>3</v>
+      </c>
+      <c r="BJ60">
+        <v>12</v>
+      </c>
+      <c r="BK60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:63">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>5052948</v>
+      </c>
+      <c r="C61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45010.91666666666</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>72</v>
+      </c>
+      <c r="H61" t="s">
+        <v>83</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>2</v>
+      </c>
+      <c r="N61">
+        <v>2</v>
+      </c>
+      <c r="O61" t="s">
+        <v>84</v>
+      </c>
+      <c r="P61" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q61">
+        <v>10</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
+      <c r="S61">
+        <v>11</v>
+      </c>
+      <c r="T61">
+        <v>2.35</v>
+      </c>
+      <c r="U61">
+        <v>2.15</v>
+      </c>
+      <c r="V61">
+        <v>4.2</v>
+      </c>
+      <c r="W61">
+        <v>1.35</v>
+      </c>
+      <c r="X61">
+        <v>2.95</v>
+      </c>
+      <c r="Y61">
+        <v>2.55</v>
+      </c>
+      <c r="Z61">
+        <v>1.44</v>
+      </c>
+      <c r="AA61">
+        <v>6.25</v>
+      </c>
+      <c r="AB61">
+        <v>1.1</v>
+      </c>
+      <c r="AC61">
+        <v>1.7</v>
+      </c>
+      <c r="AD61">
+        <v>3.5</v>
+      </c>
+      <c r="AE61">
+        <v>4.4</v>
+      </c>
+      <c r="AF61">
+        <v>1.04</v>
+      </c>
+      <c r="AG61">
+        <v>10</v>
+      </c>
+      <c r="AH61">
+        <v>1.25</v>
+      </c>
+      <c r="AI61">
+        <v>3.6</v>
+      </c>
+      <c r="AJ61">
+        <v>1.53</v>
+      </c>
+      <c r="AK61">
+        <v>2.19</v>
+      </c>
+      <c r="AL61">
+        <v>1.7</v>
+      </c>
+      <c r="AM61">
+        <v>2</v>
+      </c>
+      <c r="AN61">
+        <v>1.23</v>
+      </c>
+      <c r="AO61">
+        <v>1.27</v>
+      </c>
+      <c r="AP61">
+        <v>1.93</v>
+      </c>
+      <c r="AQ61">
+        <v>2.5</v>
+      </c>
+      <c r="AR61">
+        <v>1</v>
+      </c>
+      <c r="AS61">
+        <v>2</v>
+      </c>
+      <c r="AT61">
+        <v>1.5</v>
+      </c>
+      <c r="AU61">
+        <v>1.9</v>
+      </c>
+      <c r="AV61">
+        <v>1.4</v>
+      </c>
+      <c r="AW61">
+        <v>3.3</v>
+      </c>
+      <c r="AX61">
+        <v>1.53</v>
+      </c>
+      <c r="AY61">
+        <v>8.5</v>
+      </c>
+      <c r="AZ61">
+        <v>2.88</v>
+      </c>
+      <c r="BA61">
+        <v>0</v>
+      </c>
+      <c r="BB61">
+        <v>1.36</v>
+      </c>
+      <c r="BC61">
+        <v>1.66</v>
+      </c>
+      <c r="BD61">
+        <v>2.11</v>
+      </c>
+      <c r="BE61">
+        <v>2.72</v>
+      </c>
+      <c r="BF61">
+        <v>8</v>
+      </c>
+      <c r="BG61">
+        <v>7</v>
+      </c>
+      <c r="BH61">
+        <v>12</v>
+      </c>
+      <c r="BI61">
+        <v>4</v>
+      </c>
+      <c r="BJ61">
+        <v>20</v>
+      </c>
+      <c r="BK61">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:63">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>5052949</v>
+      </c>
+      <c r="C62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45011.54166666666</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>73</v>
+      </c>
+      <c r="H62" t="s">
+        <v>79</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62" t="s">
+        <v>133</v>
+      </c>
+      <c r="P62" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q62">
+        <v>10</v>
+      </c>
+      <c r="R62">
+        <v>6</v>
+      </c>
+      <c r="S62">
+        <v>16</v>
+      </c>
+      <c r="T62">
+        <v>2.4</v>
+      </c>
+      <c r="U62">
+        <v>2.18</v>
+      </c>
+      <c r="V62">
+        <v>4.5</v>
+      </c>
+      <c r="W62">
+        <v>1.34</v>
+      </c>
+      <c r="X62">
+        <v>3.15</v>
+      </c>
+      <c r="Y62">
+        <v>2.7</v>
+      </c>
+      <c r="Z62">
+        <v>1.44</v>
+      </c>
+      <c r="AA62">
+        <v>7</v>
+      </c>
+      <c r="AB62">
+        <v>1.09</v>
+      </c>
+      <c r="AC62">
+        <v>2.2</v>
+      </c>
+      <c r="AD62">
+        <v>3.1</v>
+      </c>
+      <c r="AE62">
+        <v>3.1</v>
+      </c>
+      <c r="AF62">
+        <v>1.05</v>
+      </c>
+      <c r="AG62">
+        <v>12.5</v>
+      </c>
+      <c r="AH62">
+        <v>1.24</v>
+      </c>
+      <c r="AI62">
+        <v>4.1</v>
+      </c>
+      <c r="AJ62">
+        <v>2</v>
+      </c>
+      <c r="AK62">
+        <v>1.67</v>
+      </c>
+      <c r="AL62">
+        <v>1.66</v>
+      </c>
+      <c r="AM62">
+        <v>2.16</v>
+      </c>
+      <c r="AN62">
+        <v>1.23</v>
+      </c>
+      <c r="AO62">
+        <v>1.3</v>
+      </c>
+      <c r="AP62">
+        <v>1.96</v>
+      </c>
+      <c r="AQ62">
+        <v>1</v>
+      </c>
+      <c r="AR62">
+        <v>0</v>
+      </c>
+      <c r="AS62">
+        <v>1.5</v>
+      </c>
+      <c r="AT62">
+        <v>0</v>
+      </c>
+      <c r="AU62">
+        <v>1.55</v>
+      </c>
+      <c r="AV62">
+        <v>1.08</v>
+      </c>
+      <c r="AW62">
+        <v>2.63</v>
+      </c>
+      <c r="AX62">
+        <v>1.53</v>
+      </c>
+      <c r="AY62">
+        <v>8.5</v>
+      </c>
+      <c r="AZ62">
+        <v>2.88</v>
+      </c>
+      <c r="BA62">
+        <v>0</v>
+      </c>
+      <c r="BB62">
+        <v>1.32</v>
+      </c>
+      <c r="BC62">
+        <v>1.64</v>
+      </c>
+      <c r="BD62">
+        <v>1.98</v>
+      </c>
+      <c r="BE62">
+        <v>2.65</v>
+      </c>
+      <c r="BF62">
+        <v>6</v>
+      </c>
+      <c r="BG62">
+        <v>4</v>
+      </c>
+      <c r="BH62">
+        <v>12</v>
+      </c>
+      <c r="BI62">
+        <v>6</v>
+      </c>
+      <c r="BJ62">
+        <v>18</v>
+      </c>
+      <c r="BK62">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="163">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -418,6 +418,12 @@
     <t>['15', '80']</t>
   </si>
   <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
     <t>['81']</t>
   </si>
   <si>
@@ -478,9 +484,6 @@
     <t>['87']</t>
   </si>
   <si>
-    <t>['67']</t>
-  </si>
-  <si>
     <t>['34']</t>
   </si>
   <si>
@@ -491,6 +494,15 @@
   </si>
   <si>
     <t>['48', '61']</t>
+  </si>
+  <si>
+    <t>['37', '66']</t>
+  </si>
+  <si>
+    <t>['62']</t>
+  </si>
+  <si>
+    <t>['75', '84']</t>
   </si>
 </sst>
 </file>
@@ -852,7 +864,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK62"/>
+  <dimension ref="A1:BK67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1374,10 +1386,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT3">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1756,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT5">
         <v>0.75</v>
@@ -1947,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT6">
         <v>0.25</v>
@@ -2141,7 +2153,7 @@
         <v>2.6</v>
       </c>
       <c r="AT7">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2242,7 +2254,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2329,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT8">
         <v>0</v>
@@ -2433,7 +2445,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2523,7 +2535,7 @@
         <v>2</v>
       </c>
       <c r="AT9">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2714,7 +2726,7 @@
         <v>1.5</v>
       </c>
       <c r="AT10">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3006,7 +3018,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3197,7 +3209,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q13">
         <v>6</v>
@@ -3388,7 +3400,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3475,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT14">
         <v>2</v>
@@ -3961,7 +3973,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4343,7 +4355,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4624,7 +4636,7 @@
         <v>2.6</v>
       </c>
       <c r="AT20">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -4916,7 +4928,7 @@
         <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q22">
         <v>10</v>
@@ -5107,7 +5119,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q23">
         <v>10</v>
@@ -5194,10 +5206,10 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT23">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU23">
         <v>2.17</v>
@@ -5385,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT24">
         <v>0.67</v>
@@ -5489,7 +5501,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -5579,7 +5591,7 @@
         <v>2.4</v>
       </c>
       <c r="AT25">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU25">
         <v>2.25</v>
@@ -5680,7 +5692,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -5770,7 +5782,7 @@
         <v>2.25</v>
       </c>
       <c r="AT26">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6149,7 +6161,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT28">
         <v>0</v>
@@ -6253,7 +6265,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q29">
         <v>10</v>
@@ -6531,7 +6543,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT30">
         <v>1</v>
@@ -6913,7 +6925,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT32">
         <v>1.33</v>
@@ -7208,7 +7220,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7399,7 +7411,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q35">
         <v>8</v>
@@ -7486,7 +7498,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT35">
         <v>0.25</v>
@@ -8062,7 +8074,7 @@
         <v>2</v>
       </c>
       <c r="AT38">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU38">
         <v>1.84</v>
@@ -8253,7 +8265,7 @@
         <v>2.4</v>
       </c>
       <c r="AT39">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU39">
         <v>1.92</v>
@@ -8354,7 +8366,7 @@
         <v>84</v>
       </c>
       <c r="P40" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -8441,10 +8453,10 @@
         <v>1.5</v>
       </c>
       <c r="AS40">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT40">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU40">
         <v>1.54</v>
@@ -8545,7 +8557,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -8736,7 +8748,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q42">
         <v>11</v>
@@ -9014,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT43">
         <v>0</v>
@@ -9500,7 +9512,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9587,7 +9599,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT46">
         <v>1.33</v>
@@ -9882,7 +9894,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -9969,7 +9981,7 @@
         <v>1</v>
       </c>
       <c r="AS48">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT48">
         <v>1</v>
@@ -10073,7 +10085,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10264,7 +10276,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -10351,7 +10363,7 @@
         <v>3</v>
       </c>
       <c r="AS50">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT50">
         <v>2</v>
@@ -10455,7 +10467,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -10733,10 +10745,10 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT52">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU52">
         <v>1.35</v>
@@ -10837,7 +10849,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11028,7 +11040,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -11410,7 +11422,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11601,7 +11613,7 @@
         <v>129</v>
       </c>
       <c r="P57" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -11691,7 +11703,7 @@
         <v>2</v>
       </c>
       <c r="AT57">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU57">
         <v>2.85</v>
@@ -11882,7 +11894,7 @@
         <v>2.25</v>
       </c>
       <c r="AT58">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU58">
         <v>1.94</v>
@@ -12365,7 +12377,7 @@
         <v>84</v>
       </c>
       <c r="P61" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q61">
         <v>10</v>
@@ -12682,21 +12694,976 @@
         <v>2.65</v>
       </c>
       <c r="BF62">
+        <v>7</v>
+      </c>
+      <c r="BG62">
         <v>6</v>
       </c>
-      <c r="BG62">
+      <c r="BH62">
+        <v>7</v>
+      </c>
+      <c r="BI62">
+        <v>3</v>
+      </c>
+      <c r="BJ62">
+        <v>14</v>
+      </c>
+      <c r="BK62">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:63">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>5052950</v>
+      </c>
+      <c r="C63" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45011.625</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>66</v>
+      </c>
+      <c r="H63" t="s">
+        <v>81</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
+      </c>
+      <c r="N63">
+        <v>3</v>
+      </c>
+      <c r="O63" t="s">
+        <v>134</v>
+      </c>
+      <c r="P63" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q63">
+        <v>3</v>
+      </c>
+      <c r="R63">
+        <v>8</v>
+      </c>
+      <c r="S63">
+        <v>11</v>
+      </c>
+      <c r="T63">
+        <v>4.6</v>
+      </c>
+      <c r="U63">
+        <v>2.23</v>
+      </c>
+      <c r="V63">
+        <v>2.33</v>
+      </c>
+      <c r="W63">
+        <v>1.33</v>
+      </c>
+      <c r="X63">
+        <v>3.2</v>
+      </c>
+      <c r="Y63">
+        <v>2.7</v>
+      </c>
+      <c r="Z63">
+        <v>1.44</v>
+      </c>
+      <c r="AA63">
+        <v>7</v>
+      </c>
+      <c r="AB63">
+        <v>1.09</v>
+      </c>
+      <c r="AC63">
+        <v>3.2</v>
+      </c>
+      <c r="AD63">
+        <v>3.2</v>
+      </c>
+      <c r="AE63">
+        <v>2.02</v>
+      </c>
+      <c r="AF63">
+        <v>1.04</v>
+      </c>
+      <c r="AG63">
+        <v>13</v>
+      </c>
+      <c r="AH63">
+        <v>1.24</v>
+      </c>
+      <c r="AI63">
+        <v>4.1</v>
+      </c>
+      <c r="AJ63">
+        <v>2.1</v>
+      </c>
+      <c r="AK63">
+        <v>1.69</v>
+      </c>
+      <c r="AL63">
+        <v>1.7</v>
+      </c>
+      <c r="AM63">
+        <v>2.1</v>
+      </c>
+      <c r="AN63">
+        <v>2.05</v>
+      </c>
+      <c r="AO63">
+        <v>1.29</v>
+      </c>
+      <c r="AP63">
+        <v>1.22</v>
+      </c>
+      <c r="AQ63">
+        <v>1.67</v>
+      </c>
+      <c r="AR63">
+        <v>1.5</v>
+      </c>
+      <c r="AS63">
+        <v>1.25</v>
+      </c>
+      <c r="AT63">
+        <v>1.8</v>
+      </c>
+      <c r="AU63">
+        <v>1.26</v>
+      </c>
+      <c r="AV63">
+        <v>0.97</v>
+      </c>
+      <c r="AW63">
+        <v>2.23</v>
+      </c>
+      <c r="AX63">
+        <v>2.2</v>
+      </c>
+      <c r="AY63">
+        <v>8</v>
+      </c>
+      <c r="AZ63">
+        <v>1.91</v>
+      </c>
+      <c r="BA63">
+        <v>0</v>
+      </c>
+      <c r="BB63">
+        <v>1.35</v>
+      </c>
+      <c r="BC63">
+        <v>1.66</v>
+      </c>
+      <c r="BD63">
+        <v>2.11</v>
+      </c>
+      <c r="BE63">
+        <v>2.76</v>
+      </c>
+      <c r="BF63">
+        <v>6</v>
+      </c>
+      <c r="BG63">
+        <v>6</v>
+      </c>
+      <c r="BH63">
+        <v>9</v>
+      </c>
+      <c r="BI63">
+        <v>3</v>
+      </c>
+      <c r="BJ63">
+        <v>15</v>
+      </c>
+      <c r="BK63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:63">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>5052951</v>
+      </c>
+      <c r="C64" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45011.72916666666</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
+        <v>77</v>
+      </c>
+      <c r="H64" t="s">
+        <v>82</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64" t="s">
+        <v>84</v>
+      </c>
+      <c r="P64" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q64">
         <v>4</v>
       </c>
-      <c r="BH62">
+      <c r="R64">
+        <v>5</v>
+      </c>
+      <c r="S64">
+        <v>9</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+      <c r="AC64">
+        <v>2.95</v>
+      </c>
+      <c r="AD64">
+        <v>3.05</v>
+      </c>
+      <c r="AE64">
+        <v>2.35</v>
+      </c>
+      <c r="AF64">
+        <v>0</v>
+      </c>
+      <c r="AG64">
+        <v>0</v>
+      </c>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
+      </c>
+      <c r="AJ64">
+        <v>2.15</v>
+      </c>
+      <c r="AK64">
+        <v>1.62</v>
+      </c>
+      <c r="AL64">
+        <v>0</v>
+      </c>
+      <c r="AM64">
+        <v>0</v>
+      </c>
+      <c r="AN64">
+        <v>0</v>
+      </c>
+      <c r="AO64">
+        <v>0</v>
+      </c>
+      <c r="AP64">
+        <v>0</v>
+      </c>
+      <c r="AQ64">
+        <v>2</v>
+      </c>
+      <c r="AR64">
+        <v>0.25</v>
+      </c>
+      <c r="AS64">
+        <v>1.75</v>
+      </c>
+      <c r="AT64">
+        <v>0.4</v>
+      </c>
+      <c r="AU64">
+        <v>1.76</v>
+      </c>
+      <c r="AV64">
+        <v>1.32</v>
+      </c>
+      <c r="AW64">
+        <v>3.08</v>
+      </c>
+      <c r="AX64">
+        <v>0</v>
+      </c>
+      <c r="AY64">
+        <v>0</v>
+      </c>
+      <c r="AZ64">
+        <v>0</v>
+      </c>
+      <c r="BA64">
+        <v>0</v>
+      </c>
+      <c r="BB64">
+        <v>0</v>
+      </c>
+      <c r="BC64">
+        <v>0</v>
+      </c>
+      <c r="BD64">
+        <v>0</v>
+      </c>
+      <c r="BE64">
+        <v>0</v>
+      </c>
+      <c r="BF64">
+        <v>3</v>
+      </c>
+      <c r="BG64">
+        <v>4</v>
+      </c>
+      <c r="BH64">
+        <v>4</v>
+      </c>
+      <c r="BI64">
+        <v>5</v>
+      </c>
+      <c r="BJ64">
+        <v>7</v>
+      </c>
+      <c r="BK64">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:63">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>5052952</v>
+      </c>
+      <c r="C65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45011.75</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
+        <v>71</v>
+      </c>
+      <c r="H65" t="s">
+        <v>78</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65" t="s">
+        <v>84</v>
+      </c>
+      <c r="P65" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q65">
+        <v>4</v>
+      </c>
+      <c r="R65">
+        <v>6</v>
+      </c>
+      <c r="S65">
+        <v>10</v>
+      </c>
+      <c r="T65">
+        <v>2.9</v>
+      </c>
+      <c r="U65">
+        <v>2.15</v>
+      </c>
+      <c r="V65">
+        <v>3.5</v>
+      </c>
+      <c r="W65">
+        <v>1.36</v>
+      </c>
+      <c r="X65">
+        <v>3.05</v>
+      </c>
+      <c r="Y65">
+        <v>2.88</v>
+      </c>
+      <c r="Z65">
+        <v>1.4</v>
+      </c>
+      <c r="AA65">
+        <v>7.5</v>
+      </c>
+      <c r="AB65">
+        <v>1.08</v>
+      </c>
+      <c r="AC65">
+        <v>2.35</v>
+      </c>
+      <c r="AD65">
+        <v>3.05</v>
+      </c>
+      <c r="AE65">
+        <v>2.85</v>
+      </c>
+      <c r="AF65">
+        <v>1.05</v>
+      </c>
+      <c r="AG65">
+        <v>11.5</v>
+      </c>
+      <c r="AH65">
+        <v>1.28</v>
+      </c>
+      <c r="AI65">
+        <v>3.75</v>
+      </c>
+      <c r="AJ65">
+        <v>2</v>
+      </c>
+      <c r="AK65">
+        <v>1.7</v>
+      </c>
+      <c r="AL65">
+        <v>1.7</v>
+      </c>
+      <c r="AM65">
+        <v>2.1</v>
+      </c>
+      <c r="AN65">
+        <v>1.4</v>
+      </c>
+      <c r="AO65">
+        <v>1.33</v>
+      </c>
+      <c r="AP65">
+        <v>1.63</v>
+      </c>
+      <c r="AQ65">
+        <v>1.75</v>
+      </c>
+      <c r="AR65">
+        <v>0.5</v>
+      </c>
+      <c r="AS65">
+        <v>1.4</v>
+      </c>
+      <c r="AT65">
+        <v>1.33</v>
+      </c>
+      <c r="AU65">
+        <v>1.6</v>
+      </c>
+      <c r="AV65">
+        <v>1.15</v>
+      </c>
+      <c r="AW65">
+        <v>2.75</v>
+      </c>
+      <c r="AX65">
+        <v>1.88</v>
+      </c>
+      <c r="AY65">
+        <v>7.8</v>
+      </c>
+      <c r="AZ65">
+        <v>2.31</v>
+      </c>
+      <c r="BA65">
+        <v>0</v>
+      </c>
+      <c r="BB65">
+        <v>1.34</v>
+      </c>
+      <c r="BC65">
+        <v>1.64</v>
+      </c>
+      <c r="BD65">
+        <v>2.08</v>
+      </c>
+      <c r="BE65">
+        <v>2.72</v>
+      </c>
+      <c r="BF65">
+        <v>5</v>
+      </c>
+      <c r="BG65">
+        <v>6</v>
+      </c>
+      <c r="BH65">
+        <v>5</v>
+      </c>
+      <c r="BI65">
+        <v>14</v>
+      </c>
+      <c r="BJ65">
+        <v>10</v>
+      </c>
+      <c r="BK65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:63">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>5052947</v>
+      </c>
+      <c r="C66" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45011.83333333334</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>69</v>
+      </c>
+      <c r="H66" t="s">
+        <v>80</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66">
+        <v>3</v>
+      </c>
+      <c r="O66" t="s">
+        <v>135</v>
+      </c>
+      <c r="P66" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q66">
+        <v>10</v>
+      </c>
+      <c r="R66">
+        <v>1</v>
+      </c>
+      <c r="S66">
+        <v>11</v>
+      </c>
+      <c r="T66">
+        <v>2.3</v>
+      </c>
+      <c r="U66">
+        <v>2.28</v>
+      </c>
+      <c r="V66">
+        <v>4.5</v>
+      </c>
+      <c r="W66">
+        <v>1.32</v>
+      </c>
+      <c r="X66">
+        <v>3.25</v>
+      </c>
+      <c r="Y66">
+        <v>2.7</v>
+      </c>
+      <c r="Z66">
+        <v>1.44</v>
+      </c>
+      <c r="AA66">
+        <v>7</v>
+      </c>
+      <c r="AB66">
+        <v>1.09</v>
+      </c>
+      <c r="AC66">
+        <v>1.5</v>
+      </c>
+      <c r="AD66">
+        <v>3.9</v>
+      </c>
+      <c r="AE66">
+        <v>5.25</v>
+      </c>
+      <c r="AF66">
+        <v>1.04</v>
+      </c>
+      <c r="AG66">
+        <v>13</v>
+      </c>
+      <c r="AH66">
+        <v>1.24</v>
+      </c>
+      <c r="AI66">
+        <v>4.1</v>
+      </c>
+      <c r="AJ66">
+        <v>1.44</v>
+      </c>
+      <c r="AK66">
+        <v>2.6</v>
+      </c>
+      <c r="AL66">
+        <v>1.73</v>
+      </c>
+      <c r="AM66">
+        <v>2.05</v>
+      </c>
+      <c r="AN66">
+        <v>1.22</v>
+      </c>
+      <c r="AO66">
+        <v>1.28</v>
+      </c>
+      <c r="AP66">
+        <v>2.08</v>
+      </c>
+      <c r="AQ66">
+        <v>2.33</v>
+      </c>
+      <c r="AR66">
+        <v>1.5</v>
+      </c>
+      <c r="AS66">
+        <v>1.75</v>
+      </c>
+      <c r="AT66">
+        <v>1.8</v>
+      </c>
+      <c r="AU66">
+        <v>1.93</v>
+      </c>
+      <c r="AV66">
+        <v>1.08</v>
+      </c>
+      <c r="AW66">
+        <v>3.01</v>
+      </c>
+      <c r="AX66">
+        <v>1.33</v>
+      </c>
+      <c r="AY66">
+        <v>9.5</v>
+      </c>
+      <c r="AZ66">
+        <v>3.74</v>
+      </c>
+      <c r="BA66">
+        <v>0</v>
+      </c>
+      <c r="BB66">
+        <v>0</v>
+      </c>
+      <c r="BC66">
+        <v>1.66</v>
+      </c>
+      <c r="BD66">
+        <v>1.98</v>
+      </c>
+      <c r="BE66">
+        <v>2.47</v>
+      </c>
+      <c r="BF66">
         <v>12</v>
       </c>
-      <c r="BI62">
+      <c r="BG66">
         <v>6</v>
       </c>
-      <c r="BJ62">
-        <v>18</v>
-      </c>
-      <c r="BK62">
+      <c r="BH66">
+        <v>10</v>
+      </c>
+      <c r="BI66">
+        <v>5</v>
+      </c>
+      <c r="BJ66">
+        <v>22</v>
+      </c>
+      <c r="BK66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:63">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>5052953</v>
+      </c>
+      <c r="C67" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" t="s">
+        <v>64</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45012.70833333334</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
+        <v>68</v>
+      </c>
+      <c r="H67" t="s">
+        <v>65</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67" t="s">
+        <v>84</v>
+      </c>
+      <c r="P67" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q67">
+        <v>9</v>
+      </c>
+      <c r="R67">
+        <v>2</v>
+      </c>
+      <c r="S67">
+        <v>11</v>
+      </c>
+      <c r="T67">
+        <v>2.3</v>
+      </c>
+      <c r="U67">
+        <v>2.3</v>
+      </c>
+      <c r="V67">
+        <v>4.5</v>
+      </c>
+      <c r="W67">
+        <v>1.33</v>
+      </c>
+      <c r="X67">
+        <v>3.25</v>
+      </c>
+      <c r="Y67">
+        <v>2.5</v>
+      </c>
+      <c r="Z67">
+        <v>1.5</v>
+      </c>
+      <c r="AA67">
+        <v>6.5</v>
+      </c>
+      <c r="AB67">
+        <v>1.11</v>
+      </c>
+      <c r="AC67">
+        <v>1.7</v>
+      </c>
+      <c r="AD67">
+        <v>3.5</v>
+      </c>
+      <c r="AE67">
+        <v>4.33</v>
+      </c>
+      <c r="AF67">
+        <v>1.06</v>
+      </c>
+      <c r="AG67">
+        <v>9.5</v>
+      </c>
+      <c r="AH67">
+        <v>1.4</v>
+      </c>
+      <c r="AI67">
+        <v>2.95</v>
+      </c>
+      <c r="AJ67">
+        <v>1.7</v>
+      </c>
+      <c r="AK67">
+        <v>2.1</v>
+      </c>
+      <c r="AL67">
+        <v>1.67</v>
+      </c>
+      <c r="AM67">
+        <v>2.1</v>
+      </c>
+      <c r="AN67">
+        <v>1.3</v>
+      </c>
+      <c r="AO67">
+        <v>1.25</v>
+      </c>
+      <c r="AP67">
+        <v>1.75</v>
+      </c>
+      <c r="AQ67">
+        <v>1.75</v>
+      </c>
+      <c r="AR67">
+        <v>1</v>
+      </c>
+      <c r="AS67">
+        <v>1.6</v>
+      </c>
+      <c r="AT67">
+        <v>1</v>
+      </c>
+      <c r="AU67">
+        <v>1.37</v>
+      </c>
+      <c r="AV67">
+        <v>1.02</v>
+      </c>
+      <c r="AW67">
+        <v>2.39</v>
+      </c>
+      <c r="AX67">
+        <v>1.62</v>
+      </c>
+      <c r="AY67">
+        <v>8.5</v>
+      </c>
+      <c r="AZ67">
+        <v>2.63</v>
+      </c>
+      <c r="BA67">
+        <v>0</v>
+      </c>
+      <c r="BB67">
+        <v>0</v>
+      </c>
+      <c r="BC67">
+        <v>1.5</v>
+      </c>
+      <c r="BD67">
+        <v>1.8</v>
+      </c>
+      <c r="BE67">
+        <v>2.2</v>
+      </c>
+      <c r="BF67">
+        <v>6</v>
+      </c>
+      <c r="BG67">
+        <v>4</v>
+      </c>
+      <c r="BH67">
+        <v>7</v>
+      </c>
+      <c r="BI67">
+        <v>6</v>
+      </c>
+      <c r="BJ67">
+        <v>13</v>
+      </c>
+      <c r="BK67">
         <v>10</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK67"/>
+  <dimension ref="A1:BK76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.25</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT3" t="n">
         <v>0.4</v>
@@ -1512,7 +1512,7 @@
         <v>1.6</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT6" t="n">
         <v>0.25</v>
@@ -2324,7 +2324,7 @@
         <v>2</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT10" t="n">
         <v>1.8</v>
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
         <v>2</v>
@@ -3542,7 +3542,7 @@
         <v>3</v>
       </c>
       <c r="AT15" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT16" t="n">
         <v>1</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT17" t="n">
         <v>1</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT19" t="n">
         <v>1.33</v>
@@ -4963,7 +4963,7 @@
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT24" t="n">
         <v>0.67</v>
@@ -5775,7 +5775,7 @@
         <v>2.25</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT27" t="n">
         <v>0.25</v>
@@ -6384,7 +6384,7 @@
         <v>3</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU29" t="n">
         <v>1.4</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT30" t="n">
         <v>1</v>
@@ -6787,10 +6787,10 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT31" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU31" t="n">
         <v>0.86</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT32" t="n">
         <v>1.33</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT33" t="n">
         <v>1</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT41" t="n">
         <v>2</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT43" t="n">
         <v>0</v>
@@ -9629,10 +9629,10 @@
         <v>1.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU45" t="n">
         <v>1.14</v>
@@ -9832,7 +9832,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT46" t="n">
         <v>1.33</v>
@@ -10038,7 +10038,7 @@
         <v>1</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU47" t="n">
         <v>1.14</v>
@@ -10238,7 +10238,7 @@
         <v>1</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT48" t="n">
         <v>1</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AT49" t="n">
         <v>1</v>
@@ -12474,7 +12474,7 @@
         <v>2.4</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU59" t="n">
         <v>1.7</v>
@@ -12880,7 +12880,7 @@
         <v>2</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU61" t="n">
         <v>1.9</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT62" t="n">
         <v>0</v>
@@ -13283,7 +13283,7 @@
         <v>1.5</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT63" t="n">
         <v>1.8</v>
@@ -13486,7 +13486,7 @@
         <v>0.25</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT64" t="n">
         <v>0.4</v>
@@ -13692,7 +13692,7 @@
         <v>1.4</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU65" t="n">
         <v>1.6</v>
@@ -13892,7 +13892,7 @@
         <v>1.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT66" t="n">
         <v>1.8</v>
@@ -14150,6 +14150,1833 @@
       </c>
       <c r="BK67" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>5053030</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45016.70833333334</v>
+      </c>
+      <c r="F68" t="n">
+        <v>10</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Deportivo Municipal</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Sporting Cristal</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>2</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="n">
+        <v>2</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>['45+3']</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>7</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>11</v>
+      </c>
+      <c r="T68" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="U68" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X68" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>5053033</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45016.72916666666</v>
+      </c>
+      <c r="F69" t="n">
+        <v>10</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>ADT</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>César Vallejo</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>2</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>2</v>
+      </c>
+      <c r="L69" t="n">
+        <v>2</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>2</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>['10', '17']</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>11</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2</v>
+      </c>
+      <c r="S69" t="n">
+        <v>13</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>5053028</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45016.89583333334</v>
+      </c>
+      <c r="F70" t="n">
+        <v>10</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Deportivo Garcilaso</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Universitario</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>8</v>
+      </c>
+      <c r="T70" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>5053031</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45017.72916666666</v>
+      </c>
+      <c r="F71" t="n">
+        <v>10</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Melgar</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Real Garcilaso</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="n">
+        <v>2</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U71" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V71" t="n">
+        <v>6</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X71" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>5053034</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45017.875</v>
+      </c>
+      <c r="F72" t="n">
+        <v>10</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Alianza Lima</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Cienciano</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>2</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>['46', '51']</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>10</v>
+      </c>
+      <c r="T72" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U72" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V72" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X72" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>5053032</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45018.625</v>
+      </c>
+      <c r="F73" t="n">
+        <v>10</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Unión Comercio</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Alianza Atlético</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>3</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2</v>
+      </c>
+      <c r="K73" t="n">
+        <v>5</v>
+      </c>
+      <c r="L73" t="n">
+        <v>3</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="n">
+        <v>6</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>['6', '8', '27']</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>['1', '3', '51']</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>8</v>
+      </c>
+      <c r="S73" t="n">
+        <v>13</v>
+      </c>
+      <c r="T73" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U73" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V73" t="n">
+        <v>4</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X73" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>5053027</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45018.70833333334</v>
+      </c>
+      <c r="F74" t="n">
+        <v>10</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Carlos Manucci</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Sport Huancayo</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>7</v>
+      </c>
+      <c r="R74" t="n">
+        <v>6</v>
+      </c>
+      <c r="S74" t="n">
+        <v>13</v>
+      </c>
+      <c r="T74" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V74" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X74" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>5053029</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45018.72916666666</v>
+      </c>
+      <c r="F75" t="n">
+        <v>10</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Atlético Grau</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>2</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>2</v>
+      </c>
+      <c r="L75" t="n">
+        <v>3</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>3</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>['22', '40', '81']</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>6</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1</v>
+      </c>
+      <c r="S75" t="n">
+        <v>7</v>
+      </c>
+      <c r="T75" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V75" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X75" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>5053035</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45018.83333333334</v>
+      </c>
+      <c r="F76" t="n">
+        <v>10</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Deportivo Binacional</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>UTC Cajamarca</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="n">
+        <v>2</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>7</v>
+      </c>
+      <c r="R76" t="n">
+        <v>7</v>
+      </c>
+      <c r="S76" t="n">
+        <v>14</v>
+      </c>
+      <c r="T76" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U76" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V76" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X76" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK76"/>
+  <dimension ref="A1:BK77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT2" t="n">
         <v>1.4</v>
@@ -1715,7 +1715,7 @@
         <v>1.6</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT26" t="n">
         <v>1.25</v>
@@ -5978,7 +5978,7 @@
         <v>1.4</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU27" t="n">
         <v>0</v>
@@ -7602,7 +7602,7 @@
         <v>1.4</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU35" t="n">
         <v>1.81</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT42" t="n">
         <v>0</v>
@@ -11662,7 +11662,7 @@
         <v>2</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU55" t="n">
         <v>1.99</v>
@@ -12268,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT58" t="n">
         <v>1.8</v>
@@ -15977,6 +15977,209 @@
       </c>
       <c r="BK76" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>5053036</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45023.72916666666</v>
+      </c>
+      <c r="F77" t="n">
+        <v>11</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Real Garcilaso</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Deportivo Binacional</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>2</v>
+      </c>
+      <c r="L77" t="n">
+        <v>2</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="n">
+        <v>3</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>['13', '77']</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>12</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2</v>
+      </c>
+      <c r="S77" t="n">
+        <v>14</v>
+      </c>
+      <c r="T77" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U77" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V77" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X77" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK77"/>
+  <dimension ref="A1:BK83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.6</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT5" t="n">
         <v>0.6</v>
@@ -1918,7 +1918,7 @@
         <v>2.6</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT8" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.4</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>0.33</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AT15" t="n">
         <v>0.33</v>
@@ -4354,7 +4354,7 @@
         <v>0.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>2.6</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT22" t="n">
         <v>0.6</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU23" t="n">
         <v>2.17</v>
@@ -5369,7 +5369,7 @@
         <v>1.6</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU25" t="n">
         <v>2.25</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT28" t="n">
         <v>0</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AT29" t="n">
         <v>1.4</v>
@@ -6587,7 +6587,7 @@
         <v>1.6</v>
       </c>
       <c r="AT30" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU30" t="n">
         <v>0</v>
@@ -6993,7 +6993,7 @@
         <v>2</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU32" t="n">
         <v>2.85</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT35" t="n">
         <v>0.2</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT36" t="n">
         <v>0</v>
@@ -8008,7 +8008,7 @@
         <v>2.6</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU37" t="n">
         <v>0.8100000000000001</v>
@@ -8211,7 +8211,7 @@
         <v>2</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU38" t="n">
         <v>1.84</v>
@@ -8411,10 +8411,10 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU39" t="n">
         <v>1.92</v>
@@ -8614,10 +8614,10 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU40" t="n">
         <v>1.54</v>
@@ -9835,7 +9835,7 @@
         <v>1.6</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU46" t="n">
         <v>1.6</v>
@@ -10644,7 +10644,7 @@
         <v>3</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT50" t="n">
         <v>2</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AT51" t="n">
         <v>0</v>
@@ -11050,10 +11050,10 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU52" t="n">
         <v>1.35</v>
@@ -11456,10 +11456,10 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU54" t="n">
         <v>1.8</v>
@@ -11865,7 +11865,7 @@
         <v>2.6</v>
       </c>
       <c r="AT56" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU56" t="n">
         <v>1.28</v>
@@ -12065,10 +12065,10 @@
         <v>2</v>
       </c>
       <c r="AS57" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU57" t="n">
         <v>2.85</v>
@@ -12271,7 +12271,7 @@
         <v>2.4</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU58" t="n">
         <v>1.94</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT59" t="n">
         <v>0.6</v>
@@ -13286,7 +13286,7 @@
         <v>1.6</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU63" t="n">
         <v>1.26</v>
@@ -13489,7 +13489,7 @@
         <v>2</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU64" t="n">
         <v>1.76</v>
@@ -13689,7 +13689,7 @@
         <v>0.5</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT65" t="n">
         <v>1.25</v>
@@ -13895,7 +13895,7 @@
         <v>1.6</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU66" t="n">
         <v>1.93</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT67" t="n">
         <v>1</v>
@@ -16180,6 +16180,1224 @@
       </c>
       <c r="BK77" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>5053044</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45024.625</v>
+      </c>
+      <c r="F78" t="n">
+        <v>11</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Sport Boys</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Deportivo Municipal</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2</v>
+      </c>
+      <c r="K78" t="n">
+        <v>2</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="n">
+        <v>2</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>['14', '19']</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>8</v>
+      </c>
+      <c r="S78" t="n">
+        <v>13</v>
+      </c>
+      <c r="T78" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U78" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X78" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>5053038</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45024.72916666666</v>
+      </c>
+      <c r="F79" t="n">
+        <v>11</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>UTC Cajamarca</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>ADT</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>1</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>12</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>15</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>5053043</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45024.83333333334</v>
+      </c>
+      <c r="F80" t="n">
+        <v>11</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Cienciano</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Carlos Manucci</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>1</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>7</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>10</v>
+      </c>
+      <c r="T80" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V80" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X80" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>5053040</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45025.625</v>
+      </c>
+      <c r="F81" t="n">
+        <v>11</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Alianza Atlético</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Alianza Lima</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="n">
+        <v>1</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2</v>
+      </c>
+      <c r="S81" t="n">
+        <v>6</v>
+      </c>
+      <c r="T81" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U81" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X81" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>5053042</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45025.72916666666</v>
+      </c>
+      <c r="F82" t="n">
+        <v>11</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Sport Huancayo</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Melgar</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="n">
+        <v>2</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>10</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2</v>
+      </c>
+      <c r="S82" t="n">
+        <v>12</v>
+      </c>
+      <c r="T82" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U82" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X82" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>5053041</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45025.83333333334</v>
+      </c>
+      <c r="F83" t="n">
+        <v>11</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Universitario</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Atlético Grau</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="n">
+        <v>3</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>['53', '73']</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>6</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>11</v>
+      </c>
+      <c r="T83" t="n">
+        <v>2</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V83" t="n">
+        <v>6</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X83" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Peru Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK83"/>
+  <dimension ref="A1:BK85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,7 +2121,7 @@
         <v>1.17</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT9" t="n">
         <v>1.25</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT12" t="n">
         <v>1.5</v>
@@ -3339,7 +3339,7 @@
         <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT21" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU21" t="n">
         <v>1.69</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT34" t="n">
         <v>1</v>
@@ -8208,7 +8208,7 @@
         <v>3</v>
       </c>
       <c r="AS38" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT38" t="n">
         <v>1.5</v>
@@ -8820,7 +8820,7 @@
         <v>1.4</v>
       </c>
       <c r="AT41" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU41" t="n">
         <v>1.47</v>
@@ -9023,7 +9023,7 @@
         <v>2.4</v>
       </c>
       <c r="AT42" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU42" t="n">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>1.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT47" t="n">
         <v>0.6</v>
@@ -10647,7 +10647,7 @@
         <v>1.17</v>
       </c>
       <c r="AT50" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU50" t="n">
         <v>1.67</v>
@@ -11256,7 +11256,7 @@
         <v>3</v>
       </c>
       <c r="AT53" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU53" t="n">
         <v>0.4</v>
@@ -11659,7 +11659,7 @@
         <v>0.33</v>
       </c>
       <c r="AS55" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT55" t="n">
         <v>0.2</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT61" t="n">
         <v>1.4</v>
@@ -13083,7 +13083,7 @@
         <v>1.4</v>
       </c>
       <c r="AT62" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU62" t="n">
         <v>1.55</v>
@@ -17398,6 +17398,412 @@
       </c>
       <c r="BK83" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>5053037</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45026.72916666666</v>
+      </c>
+      <c r="F84" t="n">
+        <v>11</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Academia Cantolao</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Unión Comercio</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="n">
+        <v>3</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>['46', '75']</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>10</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>13</v>
+      </c>
+      <c r="T84" t="n">
+        <v>3</v>
+      </c>
+      <c r="U84" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X84" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>5053039</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Peru Primera División</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45026.83333333334</v>
+      </c>
+      <c r="F85" t="n">
+        <v>11</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>César Vallejo</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Deportivo Garcilaso</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="n">
+        <v>3</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>3</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>['31', '47', '90']</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U85" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V85" t="n">
+        <v>5</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X85" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
